--- a/analyses/batch6_v_batch7/stacks_likelihood_model.xlsx
+++ b/analyses/batch6_v_batch7/stacks_likelihood_model.xlsx
@@ -386,7 +386,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,7 +409,7 @@
       </c>
       <c r="B2">
         <f>(FACT(E2)/(FACT(E3)*FACT(E4)*FACT(E5)*FACT(E6))) * ((1-((3*E7)/4))^E3) * ((E7/4)^(E4+E5+E6))</f>
-        <v>5.2349474593734694E-4</v>
+        <v>1.7935622409194344E-4</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -424,7 +424,7 @@
       </c>
       <c r="B3">
         <f>(FACT(E2)/(FACT(E3)*FACT(E4)*FACT(E5)*FACT(E6))) * ((0.5-((E7)/4))^(E3+E4)) * ((E7/4)^(E5+E6))</f>
-        <v>1.6257645788955702E-4</v>
+        <v>9.0976127444113777E-2</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -438,7 +438,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -446,7 +446,7 @@
         <v>7</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,7 +462,7 @@
         <v>9</v>
       </c>
       <c r="E7">
-        <v>0.9</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
